--- a/docs/labs/motorware_selecting_user_variables.xlsx
+++ b/docs/labs/motorware_selecting_user_variables.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krantzp\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="345" windowWidth="21075" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="MotorWare USER Variables" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621" iterate="1"/>
+  <calcPr calcId="162913" iterate="1"/>
 </workbook>
 </file>
 
@@ -336,7 +341,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -665,153 +670,9 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <font>
         <color theme="0"/>
@@ -914,12 +775,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -961,7 +825,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -996,7 +860,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1208,10 +1072,10 @@
   <dimension ref="A1:J202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="48.28515625" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" customWidth="1"/>
@@ -1266,7 +1130,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="4">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C3" s="29" t="s">
         <v>5</v>
@@ -1280,7 +1144,7 @@
       </c>
       <c r="I3" s="20">
         <f>E4*1.1</f>
-        <v>1466.6666666666667</v>
+        <v>137.5</v>
       </c>
       <c r="J3" s="9" t="s">
         <v>36</v>
@@ -1291,7 +1155,7 @@
         <v>31</v>
       </c>
       <c r="B4" s="4">
-        <v>40000</v>
+        <v>500</v>
       </c>
       <c r="C4" s="29" t="s">
         <v>7</v>
@@ -1299,7 +1163,7 @@
       <c r="D4" s="30"/>
       <c r="E4" s="32">
         <f>B4*B5/60</f>
-        <v>1333.3333333333333</v>
+        <v>125</v>
       </c>
       <c r="F4" s="32" t="s">
         <v>4</v>
@@ -1310,7 +1174,7 @@
       </c>
       <c r="I4" s="20">
         <f>ROUND(4*B13*0.95,0)</f>
-        <v>1386</v>
+        <v>1310</v>
       </c>
       <c r="J4" s="9" t="s">
         <v>42</v>
@@ -1321,7 +1185,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="4">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C5" s="29" t="s">
         <v>9</v>
@@ -1329,7 +1193,7 @@
       <c r="D5" s="30"/>
       <c r="E5" s="32">
         <f>B5*2</f>
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="F5" s="32" t="s">
         <v>8</v>
@@ -1340,7 +1204,7 @@
       </c>
       <c r="I5" s="17">
         <f>MIN(I4,I3)</f>
-        <v>1386</v>
+        <v>137.5</v>
       </c>
       <c r="J5" s="34" t="s">
         <v>37</v>
@@ -1351,7 +1215,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="4">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C6" s="29" t="s">
         <v>12</v>
@@ -1365,7 +1229,7 @@
       </c>
       <c r="I6" s="8">
         <f>ROUND(I5*120/E5*1.98,0)</f>
-        <v>82328</v>
+        <v>1089</v>
       </c>
       <c r="J6" s="9" t="s">
         <v>41</v>
@@ -1376,7 +1240,7 @@
         <v>13</v>
       </c>
       <c r="B7" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7" s="29" t="s">
         <v>17</v>
@@ -1384,7 +1248,7 @@
       <c r="D7" s="30"/>
       <c r="E7" s="32">
         <f>B6/B7</f>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F7" s="32" t="s">
         <v>12</v>
@@ -1395,7 +1259,7 @@
       </c>
       <c r="I7" s="17">
         <f>MIN(ROUND(E4*0.1,0),150)</f>
-        <v>133</v>
+        <v>13</v>
       </c>
       <c r="J7" s="34" t="s">
         <v>62</v>
@@ -1406,7 +1270,7 @@
         <v>14</v>
       </c>
       <c r="B8" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8" s="29" t="s">
         <v>17</v>
@@ -1414,7 +1278,7 @@
       <c r="D8" s="30"/>
       <c r="E8" s="32">
         <f>E7/B8</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F8" s="32" t="s">
         <v>12</v>
@@ -1425,7 +1289,7 @@
       </c>
       <c r="I8" s="17">
         <f>INT(I7/10 + 5)</f>
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="J8" s="34" t="s">
         <v>38</v>
@@ -1444,7 +1308,7 @@
       <c r="D9" s="30"/>
       <c r="E9" s="32">
         <f>E8/B9</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F9" s="32" t="s">
         <v>12</v>
@@ -1474,7 +1338,7 @@
       <c r="D10" s="30"/>
       <c r="E10" s="32">
         <f>E8/B10</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F10" s="32" t="s">
         <v>12</v>
@@ -1540,7 +1404,7 @@
         <v>35</v>
       </c>
       <c r="B13" s="4">
-        <v>364.68200000000002</v>
+        <v>344.62</v>
       </c>
       <c r="C13" s="29" t="s">
         <v>4</v>
@@ -1567,7 +1431,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="53">
-        <v>33</v>
+        <v>47.14</v>
       </c>
       <c r="C14" s="29" t="s">
         <v>6</v>
@@ -1581,7 +1445,7 @@
       </c>
       <c r="I14" s="17">
         <f>ROUND(B14/2 + 1, 0)</f>
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="J14" s="34" t="s">
         <v>46</v>
@@ -1592,7 +1456,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="4">
-        <v>26.314699999999998</v>
+        <v>44.3</v>
       </c>
       <c r="C15" s="29" t="s">
         <v>5</v>
@@ -1606,7 +1470,7 @@
       </c>
       <c r="I15" s="17">
         <f>B3</f>
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="J15" s="34" t="s">
         <v>34</v>
@@ -1633,7 +1497,7 @@
         <v>22</v>
       </c>
       <c r="B17" s="18">
-        <v>2.3E-2</v>
+        <v>0.1305376</v>
       </c>
       <c r="C17" s="29" t="s">
         <v>23</v>
@@ -1641,7 +1505,7 @@
       <c r="D17" s="30"/>
       <c r="E17" s="32">
         <f>I20/(E10*1000)/0.7</f>
-        <v>3.2380952380952387E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F17" s="32" t="s">
         <v>23</v>
@@ -1658,7 +1522,7 @@
         <v>24</v>
       </c>
       <c r="B18" s="19">
-        <v>5.0000000000000002E-5</v>
+        <v>4.2858030000000001E-4</v>
       </c>
       <c r="C18" s="29" t="s">
         <v>25</v>
@@ -1718,7 +1582,7 @@
       </c>
       <c r="I20" s="17">
         <f>ROUNDUP(MAX(I21,I22),0)</f>
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="J20" s="34" t="s">
         <v>77</v>
@@ -1730,7 +1594,7 @@
       </c>
       <c r="B21" s="13">
         <f>I3/4</f>
-        <v>366.66666666666669</v>
+        <v>34.375</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>33</v>
@@ -1744,7 +1608,7 @@
       </c>
       <c r="I21" s="20">
         <f>B3</f>
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="J21" s="9" t="s">
         <v>54</v>
@@ -1756,7 +1620,7 @@
       </c>
       <c r="B22" s="23">
         <f>B21*0.5</f>
-        <v>183.33333333333334</v>
+        <v>17.1875</v>
       </c>
       <c r="C22" s="41" t="s">
         <v>4</v>
@@ -1770,7 +1634,7 @@
       </c>
       <c r="I22" s="20">
         <f>B17*E4*1.1</f>
-        <v>33.733333333333334</v>
+        <v>17.948920000000001</v>
       </c>
       <c r="J22" s="9"/>
     </row>
@@ -2030,62 +1894,62 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I18:I19 I9:I11">
-    <cfRule type="cellIs" dxfId="29" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18:I19 I9:I11">
-    <cfRule type="expression" dxfId="28" priority="11">
+    <cfRule type="expression" dxfId="10" priority="11">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18:I19 I14 I9:I11">
-    <cfRule type="expression" dxfId="27" priority="10">
+    <cfRule type="expression" dxfId="9" priority="10">
       <formula>"FALSE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18:I19 I9:I11">
-    <cfRule type="containsText" dxfId="26" priority="9" operator="containsText" text="FALSE">
+    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="FALSE">
       <formula>NOT(ISERROR(SEARCH("FALSE",I9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18:I19 I9:I11">
-    <cfRule type="containsText" dxfId="25" priority="8" operator="containsText" text="FALSE">
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="FALSE">
       <formula>NOT(ISERROR(SEARCH("FALSE",I9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18:I19 I9:I11">
-    <cfRule type="containsText" dxfId="24" priority="7" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",I9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="expression" dxfId="9" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="expression" dxfId="7" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>"FALSE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="FALSE">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="FALSE">
       <formula>NOT(ISERROR(SEARCH("FALSE",I12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="FALSE">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="FALSE">
       <formula>NOT(ISERROR(SEARCH("FALSE",I12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",I12)))</formula>
     </cfRule>
   </conditionalFormatting>
